--- a/1_originaldata_d_extraction.xlsx
+++ b/1_originaldata_d_extraction.xlsx
@@ -1,561 +1,925 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesreilly/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{C010E7E5-9DA8-F64A-BA9A-41D3A08DD18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">comments</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">the internal ID of the article or paper</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">the internal ID of the study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">the author of the article or paper</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">the year of publication</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">the title of the article or paper</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">location of the data within the article or paper</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">the name of the study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve"/>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve"/>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">standard deviation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve"/>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>comments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the internal ID of the article or paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the internal ID of the study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the author of the article or paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the year of publication</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the title of the article or paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>location of the data within the article or paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the name of the study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text/>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text/>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>standard deviation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text/>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">if an age range is given, extract the min. age </t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">if an age range is given, extract the max. age </t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of females in the final sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of males in the final sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">List all of the following options that apply: tumour, glioma, meningioma, astrocytoma, space-occupying lesions, other</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">If you selected "other", please list the pathologies here</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">dMRI gradient directions</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">b-value (unit sec/mm2)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Extract the dMRI voxel size (width)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Extract the dMRI voxel size (height)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Extract the dMRI voxel size (depth)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">tractography software as described in the paper, e.g., “DTI Studio software version 2.02”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Options: FOD, DTI, both, unclear</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0">
-      <text>
-        <r>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of females in the final sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of males in the final sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>List all of the following options that apply: tumour, glioma, meningioma, astrocytoma, space-occupying lesions, other</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>If you selected "other", please list the pathologies here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>dMRI gradient directions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>b-value (unit sec/mm2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Extract the dMRI voxel size (width)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Extract the dMRI voxel size (height)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Extract the dMRI voxel size (depth)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>tractography software as described in the paper, e.g., “DTI Studio software version 2.02”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Options: FOD, DTI, both, unclear</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">extract the ROIs used for tractography </t>
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">was the tractography performed using nTMS or anatomical landmarks? Enter, “tms” or “anatomical”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>was the tractography performed using nTMS or anatomical landmarks? Enter, “tms” or “anatomical”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">what muscles were monitored intraoperatively? </t>
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">method for brain shift correction. Select from the following: ultra-sound, iMRI, post-op MRI, not metioned, other</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">copy and paste relevant quotes or write a summary specifying how the brain shift correction method was employed, e.g., “US and MRI image were displayed next to each other, a screenshot was taken, and the distance between stimulation point and CST was measured in the MR image using photoshop "after correction by the analogous US scan"”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>method for brain shift correction. Select from the following: ultra-sound, iMRI, post-op MRI, not metioned, other</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>copy and paste relevant quotes or write a summary specifying how the brain shift correction method was employed, e.g., “US and MRI image were displayed next to each other, a screenshot was taken, and the distance between stimulation point and CST was measured in the MR image using photoshop "after correction by the analogous US scan"”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">what stimulation probe was used? Select from the following: monopolar, bipolar, unclear </t>
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">What was the range (in mA) of the stimulation strength? Enter, e.g., 1-10, 8-12. If not specified, enter “unclear”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>What was the range (in mA) of the stimulation strength? Enter, e.g., 1-10, 8-12. If not specified, enter “unclear”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">what was the stimulation frequency (in Hz)? </t>
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">what was the duration of each pulse (in ms)? This may also be referred to as “pulse-width”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>what was the duration of each pulse (in ms)? This may also be referred to as “pulse-width”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">what was the interstimulus interval (in ms)? </t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">was stimulation conducted in train form? E.g., train of 5, no</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>was stimulation conducted in train form? E.g., train of 5, no</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">what stimulation probe was used? Select from the following: monopolar, bipolar, unclear </t>
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">What was the range (in mA) of the stimulation strength? Enter, e.g., 1-10, 8-12. If not specified, enter “unclear”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>What was the range (in mA) of the stimulation strength? Enter, e.g., 1-10, 8-12. If not specified, enter “unclear”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">what was the stimulation frequency (in Hz)? </t>
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">what was the duration of each pulse (in ms)? This may also be referred to as “pulse-width”</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AO1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>what was the duration of each pulse (in ms)? This may also be referred to as “pulse-width”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">what was the interstimulus interval (in ms)? </t>
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">was stimulation conducted in train form? E.g., train of 5, no</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>was stimulation conducted in train form? E.g., train of 5, no</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">Do the authors report a conflict of interest? Enter “yes”, “no”, “unclear” </t>
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Sensitivity for DTI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Sensitivity for FOD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AT1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Specificity for DTI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AU1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Specificity for FOD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Positive predictive value for DTI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AW1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Positive predictive value for FOD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Negative predictive value for DTI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AY1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Negative predictive value for FOD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AZ1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of true positives for DTI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BA1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of true positives for FOD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BB1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of true negatives for DTI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BC1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of true negatives for FOD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of false positives for DTI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BE1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of false positives for FOD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BF1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of false negatives for DTI</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BG1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">number of false negatives for FOD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BH1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">total number of cortical stimulation points</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BI1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">total number of subcortical stimulation points</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BJ1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">total number of cortical and subcortical stimulation points</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BK1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">mean distance between tract and all stimulation points</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BL1" authorId="0">
-      <text>
-        <r>
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Sensitivity for DTI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Sensitivity for FOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Specificity for DTI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Specificity for FOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Positive predictive value for DTI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Positive predictive value for FOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Negative predictive value for DTI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Negative predictive value for FOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of true positives for DTI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of true positives for FOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of true negatives for DTI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of true negatives for FOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of false positives for DTI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of false positives for FOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of false negatives for DTI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>number of false negatives for FOD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>total number of cortical stimulation points</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>total number of subcortical stimulation points</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>total number of cortical and subcortical stimulation points</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>mean distance between tract and all stimulation points</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">mean distance between tract and positive stimulation points </t>
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0">
-      <text>
-        <r>
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">mean distance between tract and negative stimulation points </t>
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0">
-      <text>
-        <r>
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">e.g., Pearson or Spearman correlation </t>
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">correlation coefficient</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BP1" authorId="0">
-      <text>
-        <r>
+    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>correlation coefficient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">lower bound of the confidence interval </t>
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">upper bound of the confidence interval</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BR1" authorId="0">
-      <text>
-        <r>
+    <comment ref="BQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>upper bound of the confidence interval</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">effect size </t>
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0">
-      <text>
-        <r>
+    <comment ref="BS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">e.g., Cohen’s d, Hedges’s g </t>
         </r>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0">
-      <text>
-        <r>
+    <comment ref="BT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">what motor test(s) was conducted? </t>
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">score from the pre-operative motor test(s)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BV1" authorId="0">
-      <text>
-        <r>
+    <comment ref="BU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>score from the pre-operative motor test(s)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">select from the following depending on whether the time of the motor test was less than 5 days before the operation, more than 5 days before the operation, not specified: ≥5 days, &lt;5 days, unspecified </t>
         </r>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">score from the pre-operative motor test(s) (from the latest follow-up conducted)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BX1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">select from the following depending on whether the time of the motor test was less than 1 month after the operation, more than 1 month before the operation, not specified: ≥1 month, &lt;1 month, unspecified</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BY1" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">did motor function change from pre- to post-op testing? Select from: "improve", "decrease", "same"</t>
+    <comment ref="BW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>score from the pre-operative motor test(s) (from the latest follow-up conducted)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>select from the following depending on whether the time of the motor test was less than 1 month after the operation, more than 1 month before the operation, not specified: ≥1 month, &lt;1 month, unspecified</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>did motor function change from pre- to post-op testing? Select from: "improve", "decrease", "same"</t>
         </r>
       </text>
     </comment>
@@ -564,7 +928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="323">
   <si>
     <t>comments</t>
   </si>
@@ -1210,9 +1574,6 @@
     <t>overall motor preservation 40/43 (93%); 37 had not preop motor deficit (of those 2 developed a permanent weakness), 6 had preop motor deficits (of those 1 had a permanent worsened deficit)</t>
   </si>
   <si>
-    <t>check model: DTI or completely manual?; DOUBLE CHECK. EXCLUDE DUE TO LACK OF TRACTOGRAPHY?</t>
-  </si>
-  <si>
     <t>Coenen V.A.; Krings T.; Axer H.; Weidemann J.; Kranzlein H.; Hans F.-J.; Thron A.; Gilsbach J.M.; Rohde V.; Yoshimoto T.; Kollias S.; Yonekawa Y.</t>
   </si>
   <si>
@@ -1233,9 +1594,6 @@
     <t>cranial 3.0 software (Medtronic)</t>
   </si>
   <si>
-    <t>DTI?????</t>
-  </si>
-  <si>
     <t>orbicularis oculi, biceps, triceps, anterior tibialis, triceps surae</t>
   </si>
   <si>
@@ -1423,9 +1781,6 @@
     <t>27.24 (FACT), 27.37 (TP), 30.23 (ATP), 15.68 (iFOD2), 15.78 (AiFOD2)</t>
   </si>
   <si>
-    <t>preoperative tractography; DOUBLE CHECK MOTOR OUTCOME</t>
-  </si>
-  <si>
     <t>Zolal, A; Hejcl, A; Vachata, P; Bartos, R; Humhej, I; Malucelli, A; Nováková, M; Hrach, K; Derner, M; Sames, M</t>
   </si>
   <si>
@@ -1512,9 +1867,6 @@
     <t>8 contralateral hemiparesis (improved and independent at last follow up), 1 hemiplegia immediately after post-OP</t>
   </si>
   <si>
-    <t>precursor study to Jeong et a. (2014)?</t>
-  </si>
-  <si>
     <t>Jeong, Jeong‐Won; Asano, Eishi; Brown, Erik C.; Tiwari, Vijay N.; Chugani, Diane C.; JOUR</t>
   </si>
   <si>
@@ -1563,31 +1915,36 @@
   </si>
   <si>
     <t>no gross motor deficits</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>preoperative tractography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1595,32 +1952,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="true"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1910,20 +2274,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2156,8 +2517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
-      <c r="A2"/>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>356</v>
       </c>
@@ -2182,10 +2542,8 @@
       <c r="I2">
         <v>54</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
       <c r="L2">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="M2">
         <v>1.9</v>
@@ -2202,16 +2560,12 @@
       <c r="Q2" t="s">
         <v>81</v>
       </c>
-      <c r="R2"/>
       <c r="S2">
         <v>26</v>
       </c>
       <c r="T2">
         <v>1000</v>
       </c>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
       <c r="X2" t="s">
         <v>82</v>
       </c>
@@ -2227,57 +2581,18 @@
       <c r="AB2" t="s">
         <v>86</v>
       </c>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
       <c r="AK2" t="s">
         <v>87</v>
       </c>
       <c r="AL2" t="s">
         <v>88</v>
       </c>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
       <c r="AQ2" t="s">
         <v>89</v>
       </c>
       <c r="AR2" t="s">
         <v>90</v>
       </c>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
       <c r="BT2" t="s">
         <v>91</v>
       </c>
@@ -2297,7 +2612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2328,8 +2643,6 @@
       <c r="J3">
         <v>42</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
       <c r="M3">
         <v>33</v>
       </c>
@@ -2345,7 +2658,6 @@
       <c r="Q3" t="s">
         <v>101</v>
       </c>
-      <c r="R3"/>
       <c r="S3">
         <v>64</v>
       </c>
@@ -2373,79 +2685,38 @@
       <c r="AA3" t="s">
         <v>85</v>
       </c>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
       <c r="AK3" t="s">
         <v>105</v>
       </c>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
       <c r="AQ3" t="s">
         <v>106</v>
       </c>
       <c r="AR3" t="s">
         <v>107</v>
       </c>
-      <c r="AS3"/>
       <c r="AT3" t="s">
         <v>108</v>
       </c>
-      <c r="AU3"/>
       <c r="AV3" t="s">
         <v>109</v>
       </c>
-      <c r="AW3"/>
       <c r="AX3" t="s">
         <v>109</v>
       </c>
-      <c r="AY3"/>
-      <c r="AZ3"/>
-      <c r="BA3"/>
-      <c r="BB3"/>
-      <c r="BC3"/>
-      <c r="BD3"/>
-      <c r="BE3"/>
-      <c r="BF3"/>
-      <c r="BG3"/>
-      <c r="BH3"/>
-      <c r="BI3"/>
-      <c r="BJ3"/>
-      <c r="BK3"/>
-      <c r="BL3"/>
-      <c r="BM3"/>
-      <c r="BN3"/>
-      <c r="BO3"/>
-      <c r="BP3"/>
-      <c r="BQ3"/>
-      <c r="BR3"/>
-      <c r="BS3"/>
       <c r="BT3" t="s">
         <v>110</v>
       </c>
       <c r="BU3" t="s">
         <v>111</v>
       </c>
-      <c r="BV3"/>
       <c r="BW3" t="s">
         <v>112</v>
       </c>
-      <c r="BX3"/>
       <c r="BY3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
-      <c r="A4"/>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>718</v>
       </c>
@@ -2476,15 +2747,9 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
       <c r="Q4" t="s">
         <v>117</v>
       </c>
-      <c r="R4"/>
       <c r="S4">
         <v>12</v>
       </c>
@@ -2533,8 +2798,6 @@
       <c r="AH4" t="s">
         <v>127</v>
       </c>
-      <c r="AI4"/>
-      <c r="AJ4"/>
       <c r="AK4" t="s">
         <v>124</v>
       </c>
@@ -2547,59 +2810,42 @@
       <c r="AN4" t="s">
         <v>127</v>
       </c>
-      <c r="AO4"/>
-      <c r="AP4"/>
       <c r="AQ4" t="s">
         <v>106</v>
       </c>
       <c r="AR4" t="s">
         <v>108</v>
       </c>
-      <c r="AS4"/>
       <c r="AT4" t="s">
         <v>129</v>
       </c>
-      <c r="AU4"/>
       <c r="AV4" t="s">
         <v>130</v>
       </c>
-      <c r="AW4"/>
       <c r="AX4" t="s">
         <v>108</v>
       </c>
-      <c r="AY4"/>
       <c r="AZ4">
         <v>18</v>
       </c>
-      <c r="BA4"/>
       <c r="BB4">
         <v>13</v>
       </c>
-      <c r="BC4"/>
-      <c r="BD4"/>
-      <c r="BE4"/>
       <c r="BF4">
         <v>5</v>
       </c>
-      <c r="BG4"/>
-      <c r="BH4"/>
-      <c r="BI4"/>
       <c r="BJ4">
         <v>36</v>
       </c>
       <c r="BK4" t="s">
         <v>131</v>
       </c>
-      <c r="BL4"/>
-      <c r="BM4"/>
       <c r="BN4" t="s">
         <v>132</v>
       </c>
       <c r="BO4">
         <v>0.66</v>
       </c>
-      <c r="BP4"/>
-      <c r="BQ4"/>
       <c r="BR4">
         <v>0.436</v>
       </c>
@@ -2609,9 +2855,6 @@
       <c r="BT4" t="s">
         <v>134</v>
       </c>
-      <c r="BU4"/>
-      <c r="BV4"/>
-      <c r="BW4"/>
       <c r="BX4" t="s">
         <v>135</v>
       </c>
@@ -2619,7 +2862,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2650,10 +2893,6 @@
       <c r="J5">
         <v>42</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5">
         <v>9</v>
       </c>
@@ -2663,7 +2902,6 @@
       <c r="Q5" t="s">
         <v>141</v>
       </c>
-      <c r="R5"/>
       <c r="S5">
         <v>6</v>
       </c>
@@ -2709,9 +2947,6 @@
       <c r="AG5">
         <v>60</v>
       </c>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
       <c r="AK5" t="s">
         <v>149</v>
       </c>
@@ -2721,30 +2956,12 @@
       <c r="AM5">
         <v>60</v>
       </c>
-      <c r="AN5"/>
-      <c r="AO5"/>
-      <c r="AP5"/>
       <c r="AQ5" t="s">
         <v>151</v>
       </c>
       <c r="AR5" t="s">
         <v>152</v>
       </c>
-      <c r="AS5"/>
-      <c r="AT5"/>
-      <c r="AU5"/>
-      <c r="AV5"/>
-      <c r="AW5"/>
-      <c r="AX5"/>
-      <c r="AY5"/>
-      <c r="AZ5"/>
-      <c r="BA5"/>
-      <c r="BB5"/>
-      <c r="BC5"/>
-      <c r="BD5"/>
-      <c r="BE5"/>
-      <c r="BF5"/>
-      <c r="BG5"/>
       <c r="BH5">
         <v>35</v>
       </c>
@@ -2757,22 +2974,8 @@
       <c r="BK5" t="s">
         <v>153</v>
       </c>
-      <c r="BL5"/>
-      <c r="BM5"/>
-      <c r="BN5"/>
-      <c r="BO5"/>
-      <c r="BP5"/>
-      <c r="BQ5"/>
-      <c r="BR5"/>
-      <c r="BS5"/>
-      <c r="BT5"/>
-      <c r="BU5"/>
-      <c r="BV5"/>
-      <c r="BW5"/>
-      <c r="BX5"/>
-      <c r="BY5"/>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -2803,10 +3006,6 @@
       <c r="J6">
         <v>42</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
       <c r="O6">
         <v>2</v>
       </c>
@@ -2816,7 +3015,6 @@
       <c r="Q6" t="s">
         <v>141</v>
       </c>
-      <c r="R6"/>
       <c r="S6">
         <v>55</v>
       </c>
@@ -2824,13 +3022,13 @@
         <v>2000</v>
       </c>
       <c r="U6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="X6" t="s">
         <v>158</v>
@@ -2850,7 +3048,6 @@
       <c r="AC6" t="s">
         <v>162</v>
       </c>
-      <c r="AD6"/>
       <c r="AE6" t="s">
         <v>149</v>
       </c>
@@ -2860,9 +3057,6 @@
       <c r="AG6">
         <v>60</v>
       </c>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
       <c r="AK6" t="s">
         <v>149</v>
       </c>
@@ -2872,9 +3066,6 @@
       <c r="AM6">
         <v>60</v>
       </c>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
       <c r="AQ6" t="s">
         <v>83</v>
       </c>
@@ -2884,20 +3075,6 @@
       <c r="AS6" t="s">
         <v>164</v>
       </c>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
-      <c r="AW6"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6"/>
-      <c r="BD6"/>
-      <c r="BE6"/>
-      <c r="BF6"/>
-      <c r="BG6"/>
       <c r="BH6">
         <v>21</v>
       </c>
@@ -2907,26 +3084,11 @@
       <c r="BJ6">
         <v>29</v>
       </c>
-      <c r="BK6"/>
       <c r="BL6" t="s">
         <v>165</v>
       </c>
-      <c r="BM6"/>
-      <c r="BN6"/>
-      <c r="BO6"/>
-      <c r="BP6"/>
-      <c r="BQ6"/>
-      <c r="BR6"/>
-      <c r="BS6"/>
-      <c r="BT6"/>
-      <c r="BU6"/>
-      <c r="BV6"/>
-      <c r="BW6"/>
-      <c r="BX6"/>
-      <c r="BY6"/>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7"/>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1161</v>
       </c>
@@ -2954,8 +3116,6 @@
       <c r="J7">
         <v>44</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
       <c r="M7">
         <v>10</v>
       </c>
@@ -2971,11 +3131,9 @@
       <c r="Q7" t="s">
         <v>169</v>
       </c>
-      <c r="R7"/>
       <c r="S7">
         <v>20</v>
       </c>
-      <c r="T7"/>
       <c r="U7">
         <v>1.8</v>
       </c>
@@ -3018,8 +3176,6 @@
       <c r="AH7" t="s">
         <v>175</v>
       </c>
-      <c r="AI7"/>
-      <c r="AJ7"/>
       <c r="AK7" t="s">
         <v>149</v>
       </c>
@@ -3032,41 +3188,27 @@
       <c r="AN7" t="s">
         <v>175</v>
       </c>
-      <c r="AO7"/>
-      <c r="AP7"/>
       <c r="AQ7" t="s">
         <v>106</v>
       </c>
       <c r="AR7">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="AS7"/>
+        <v>92.6</v>
+      </c>
       <c r="AT7">
         <v>93.2</v>
       </c>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
-      <c r="AX7"/>
-      <c r="AY7"/>
       <c r="AZ7">
         <v>93</v>
       </c>
-      <c r="BA7"/>
       <c r="BB7">
         <v>92</v>
       </c>
-      <c r="BC7"/>
       <c r="BD7">
         <v>4</v>
       </c>
-      <c r="BE7"/>
       <c r="BF7">
         <v>20</v>
       </c>
-      <c r="BG7"/>
-      <c r="BH7"/>
-      <c r="BI7"/>
       <c r="BJ7">
         <v>209</v>
       </c>
@@ -3079,12 +3221,6 @@
       <c r="BM7" t="s">
         <v>179</v>
       </c>
-      <c r="BN7"/>
-      <c r="BO7"/>
-      <c r="BP7"/>
-      <c r="BQ7"/>
-      <c r="BR7"/>
-      <c r="BS7"/>
       <c r="BT7" t="s">
         <v>180</v>
       </c>
@@ -3104,7 +3240,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>185</v>
       </c>
@@ -3135,8 +3271,6 @@
       <c r="J8">
         <v>47.1</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
       <c r="M8">
         <v>6</v>
       </c>
@@ -3152,12 +3286,6 @@
       <c r="Q8" t="s">
         <v>189</v>
       </c>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
       <c r="X8" t="s">
         <v>190</v>
       </c>
@@ -3173,14 +3301,6 @@
       <c r="AB8" t="s">
         <v>192</v>
       </c>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
       <c r="AK8" t="s">
         <v>87</v>
       </c>
@@ -3205,53 +3325,30 @@
       <c r="AR8">
         <v>84.3</v>
       </c>
-      <c r="AS8"/>
       <c r="AT8">
         <v>100</v>
       </c>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
       <c r="AZ8">
         <v>284</v>
       </c>
-      <c r="BA8"/>
       <c r="BB8">
         <v>572</v>
       </c>
-      <c r="BC8"/>
       <c r="BD8">
         <v>0</v>
       </c>
-      <c r="BE8"/>
       <c r="BF8">
         <v>53</v>
       </c>
-      <c r="BG8"/>
-      <c r="BH8"/>
-      <c r="BI8"/>
       <c r="BJ8">
         <v>909</v>
       </c>
-      <c r="BK8"/>
-      <c r="BL8"/>
-      <c r="BM8"/>
-      <c r="BN8"/>
-      <c r="BO8"/>
-      <c r="BP8"/>
-      <c r="BQ8"/>
-      <c r="BR8"/>
-      <c r="BS8"/>
       <c r="BT8" t="s">
         <v>198</v>
       </c>
-      <c r="BU8"/>
       <c r="BV8" t="s">
         <v>199</v>
       </c>
-      <c r="BW8"/>
       <c r="BX8" t="s">
         <v>200</v>
       </c>
@@ -3259,7 +3356,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -3293,9 +3390,6 @@
       <c r="K9">
         <v>15</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
       <c r="O9">
         <v>19</v>
       </c>
@@ -3305,7 +3399,6 @@
       <c r="Q9" t="s">
         <v>204</v>
       </c>
-      <c r="R9"/>
       <c r="S9">
         <v>25</v>
       </c>
@@ -3333,87 +3426,47 @@
       <c r="AA9" t="s">
         <v>85</v>
       </c>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
       <c r="AE9" t="s">
         <v>149</v>
       </c>
       <c r="AF9" t="s">
         <v>207</v>
       </c>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
       <c r="AK9" t="s">
         <v>149</v>
       </c>
       <c r="AL9" t="s">
         <v>208</v>
       </c>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
       <c r="AQ9" t="s">
         <v>106</v>
       </c>
       <c r="AR9">
         <v>100</v>
       </c>
-      <c r="AS9"/>
       <c r="AT9">
         <v>100</v>
       </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
       <c r="AZ9">
         <v>24</v>
       </c>
-      <c r="BA9"/>
       <c r="BB9">
         <v>19</v>
       </c>
-      <c r="BC9"/>
       <c r="BD9">
         <v>0</v>
       </c>
-      <c r="BE9"/>
       <c r="BF9">
         <v>0</v>
       </c>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
       <c r="BJ9">
         <v>43</v>
       </c>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9"/>
-      <c r="BN9"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
-      <c r="BQ9"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
-      <c r="BU9"/>
-      <c r="BV9"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
       <c r="BY9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5467</v>
       </c>
@@ -3421,13 +3474,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" t="s">
         <v>211</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>212</v>
-      </c>
-      <c r="F10" t="s">
-        <v>213</v>
       </c>
       <c r="G10" t="s">
         <v>80</v>
@@ -3444,7 +3497,6 @@
       <c r="K10">
         <v>16</v>
       </c>
-      <c r="L10"/>
       <c r="M10">
         <v>21</v>
       </c>
@@ -3458,105 +3510,61 @@
         <v>3</v>
       </c>
       <c r="Q10" t="s">
-        <v>214</v>
-      </c>
-      <c r="R10"/>
+        <v>213</v>
+      </c>
       <c r="S10">
         <v>6</v>
       </c>
       <c r="T10" t="s">
-        <v>215</v>
-      </c>
-      <c r="U10"/>
-      <c r="V10"/>
+        <v>214</v>
+      </c>
       <c r="W10">
         <v>3</v>
       </c>
       <c r="X10" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z10"/>
+        <v>215</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="AA10" t="s">
         <v>85</v>
       </c>
       <c r="AB10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AC10" t="s">
         <v>147</v>
       </c>
       <c r="AD10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AE10" t="s">
         <v>87</v>
       </c>
       <c r="AF10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH10" t="s">
         <v>220</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AJ10" t="s">
         <v>221</v>
       </c>
-      <c r="AH10" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI10"/>
-      <c r="AJ10" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
       <c r="AQ10" t="s">
         <v>83</v>
       </c>
       <c r="AR10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
+        <v>222</v>
+      </c>
       <c r="BY10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
-      <c r="A11"/>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>5693</v>
       </c>
@@ -3564,13 +3572,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11">
         <v>2008</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
         <v>80</v>
@@ -3579,11 +3587,8 @@
         <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+        <v>226</v>
+      </c>
       <c r="M11">
         <v>28</v>
       </c>
@@ -3597,9 +3602,8 @@
         <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>229</v>
-      </c>
-      <c r="R11"/>
+        <v>227</v>
+      </c>
       <c r="S11">
         <v>32</v>
       </c>
@@ -3607,103 +3611,64 @@
         <v>1000</v>
       </c>
       <c r="U11">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="V11">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="W11">
         <v>2.5</v>
       </c>
       <c r="X11" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z11" t="s">
         <v>230</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>232</v>
       </c>
       <c r="AA11" t="s">
         <v>85</v>
       </c>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
       <c r="AE11" t="s">
         <v>149</v>
       </c>
       <c r="AF11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
+        <v>231</v>
+      </c>
       <c r="AK11" t="s">
         <v>149</v>
       </c>
       <c r="AL11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
+        <v>231</v>
+      </c>
       <c r="AR11">
         <v>95</v>
       </c>
-      <c r="AS11"/>
       <c r="AT11">
         <v>100</v>
       </c>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
       <c r="AZ11">
         <v>218</v>
       </c>
-      <c r="BA11"/>
       <c r="BB11">
         <v>0</v>
       </c>
-      <c r="BC11"/>
       <c r="BD11">
         <v>0</v>
       </c>
-      <c r="BE11"/>
       <c r="BF11">
         <v>11</v>
       </c>
-      <c r="BG11"/>
-      <c r="BH11"/>
       <c r="BI11">
         <v>229</v>
       </c>
-      <c r="BJ11"/>
-      <c r="BK11"/>
-      <c r="BL11"/>
-      <c r="BM11"/>
-      <c r="BN11"/>
-      <c r="BO11"/>
-      <c r="BP11"/>
-      <c r="BQ11"/>
-      <c r="BR11"/>
-      <c r="BS11"/>
-      <c r="BT11"/>
       <c r="BU11" t="s">
-        <v>234</v>
-      </c>
-      <c r="BV11"/>
-      <c r="BW11"/>
-      <c r="BX11"/>
-      <c r="BY11"/>
+        <v>232</v>
+      </c>
     </row>
-    <row r="12" spans="1:77">
-      <c r="A12"/>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>5794</v>
       </c>
@@ -3711,13 +3676,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E12">
         <v>2021</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G12" t="s">
         <v>80</v>
@@ -3726,13 +3691,11 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J12">
         <v>49.2</v>
       </c>
-      <c r="K12"/>
-      <c r="L12"/>
       <c r="M12">
         <v>19</v>
       </c>
@@ -3746,9 +3709,8 @@
         <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>238</v>
-      </c>
-      <c r="R12"/>
+        <v>236</v>
+      </c>
       <c r="S12">
         <v>32</v>
       </c>
@@ -3765,95 +3727,55 @@
         <v>2.5</v>
       </c>
       <c r="X12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12"/>
       <c r="AA12" t="s">
         <v>85</v>
       </c>
       <c r="AB12" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12" t="str">
-        <f>&lt; 8</f>
-        <v>0</v>
-      </c>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12"/>
+        <v>238</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>321</v>
+      </c>
       <c r="AQ12" t="s">
         <v>106</v>
       </c>
       <c r="AR12">
         <v>84.2</v>
       </c>
-      <c r="AS12"/>
       <c r="AT12">
         <v>85.7</v>
       </c>
-      <c r="AU12"/>
-      <c r="AV12"/>
-      <c r="AW12"/>
-      <c r="AX12"/>
-      <c r="AY12"/>
       <c r="AZ12">
         <v>32</v>
       </c>
-      <c r="BA12"/>
       <c r="BB12">
         <v>6</v>
       </c>
-      <c r="BC12"/>
       <c r="BD12">
         <v>1</v>
       </c>
-      <c r="BE12"/>
       <c r="BF12">
         <v>0</v>
       </c>
-      <c r="BG12"/>
-      <c r="BH12"/>
-      <c r="BI12"/>
       <c r="BJ12">
         <v>39</v>
       </c>
-      <c r="BK12"/>
-      <c r="BL12"/>
-      <c r="BM12"/>
-      <c r="BN12"/>
-      <c r="BO12"/>
-      <c r="BP12"/>
-      <c r="BQ12"/>
-      <c r="BR12"/>
-      <c r="BS12"/>
       <c r="BT12" t="s">
+        <v>239</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>240</v>
+      </c>
+      <c r="BY12" t="s">
         <v>241</v>
       </c>
-      <c r="BU12"/>
-      <c r="BV12"/>
-      <c r="BW12"/>
-      <c r="BX12" t="s">
-        <v>242</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>243</v>
-      </c>
     </row>
-    <row r="13" spans="1:77">
-      <c r="A13"/>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>5905</v>
       </c>
@@ -3861,13 +3783,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E13">
         <v>2014</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s">
         <v>80</v>
@@ -3879,17 +3801,16 @@
         <v>31</v>
       </c>
       <c r="J13">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K13">
         <v>6.9</v>
       </c>
-      <c r="L13"/>
       <c r="M13">
         <v>0.7</v>
       </c>
       <c r="N13">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="O13">
         <v>15</v>
@@ -3898,105 +3819,61 @@
         <v>16</v>
       </c>
       <c r="Q13" t="s">
-        <v>246</v>
-      </c>
-      <c r="R13"/>
+        <v>244</v>
+      </c>
       <c r="S13">
         <v>55</v>
       </c>
       <c r="T13" t="s">
         <v>118</v>
       </c>
-      <c r="U13"/>
-      <c r="V13"/>
       <c r="W13">
         <v>3</v>
       </c>
       <c r="X13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y13" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z13"/>
+        <v>246</v>
+      </c>
       <c r="AA13" t="s">
         <v>85</v>
       </c>
       <c r="AB13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF13" t="s">
         <v>249</v>
-      </c>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>251</v>
       </c>
       <c r="AG13">
         <v>50</v>
       </c>
       <c r="AH13" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI13"/>
+        <v>250</v>
+      </c>
       <c r="AJ13" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
+        <v>251</v>
+      </c>
       <c r="AQ13" t="s">
         <v>106</v>
       </c>
       <c r="AR13" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>253</v>
+      </c>
+      <c r="BT13" t="s">
         <v>254</v>
       </c>
-      <c r="AS13"/>
-      <c r="AT13" t="s">
+      <c r="BV13" t="s">
         <v>255</v>
       </c>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
-      <c r="AY13"/>
-      <c r="AZ13"/>
-      <c r="BA13"/>
-      <c r="BB13"/>
-      <c r="BC13"/>
-      <c r="BD13"/>
-      <c r="BE13"/>
-      <c r="BF13"/>
-      <c r="BG13"/>
-      <c r="BH13"/>
-      <c r="BI13"/>
-      <c r="BJ13"/>
-      <c r="BK13"/>
-      <c r="BL13"/>
-      <c r="BM13"/>
-      <c r="BN13"/>
-      <c r="BO13"/>
-      <c r="BP13"/>
-      <c r="BQ13"/>
-      <c r="BR13"/>
-      <c r="BS13"/>
-      <c r="BT13" t="s">
-        <v>256</v>
-      </c>
-      <c r="BU13"/>
-      <c r="BV13" t="s">
-        <v>257</v>
-      </c>
-      <c r="BW13"/>
-      <c r="BX13"/>
-      <c r="BY13"/>
     </row>
-    <row r="14" spans="1:77">
-      <c r="A14"/>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>6552</v>
       </c>
@@ -4004,13 +3881,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E14">
         <v>2024</v>
       </c>
       <c r="F14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
@@ -4024,7 +3901,6 @@
       <c r="J14">
         <v>39.5</v>
       </c>
-      <c r="K14"/>
       <c r="L14">
         <v>39.5</v>
       </c>
@@ -4041,14 +3917,13 @@
         <v>14</v>
       </c>
       <c r="Q14" t="s">
+        <v>258</v>
+      </c>
+      <c r="S14" t="s">
+        <v>259</v>
+      </c>
+      <c r="T14" t="s">
         <v>260</v>
-      </c>
-      <c r="R14"/>
-      <c r="S14" t="s">
-        <v>261</v>
-      </c>
-      <c r="T14" t="s">
-        <v>262</v>
       </c>
       <c r="U14">
         <v>1.96</v>
@@ -4060,34 +3935,29 @@
         <v>2</v>
       </c>
       <c r="X14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Y14" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z14"/>
+        <v>262</v>
+      </c>
       <c r="AA14" t="s">
         <v>85</v>
       </c>
-      <c r="AB14"/>
       <c r="AC14" t="s">
         <v>147</v>
       </c>
       <c r="AD14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AE14" t="s">
         <v>149</v>
       </c>
       <c r="AF14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG14" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
+        <v>265</v>
+      </c>
       <c r="AK14" t="s">
         <v>87</v>
       </c>
@@ -4095,46 +3965,35 @@
         <v>174</v>
       </c>
       <c r="AM14" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
+        <v>266</v>
+      </c>
       <c r="AQ14" t="s">
         <v>106</v>
       </c>
       <c r="AR14" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT14" t="s">
         <v>269</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AU14" t="s">
         <v>270</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AV14" t="s">
         <v>271</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AW14" t="s">
         <v>272</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AX14" t="s">
         <v>273</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AY14" t="s">
         <v>274</v>
       </c>
-      <c r="AX14" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>276</v>
-      </c>
-      <c r="AZ14"/>
-      <c r="BA14"/>
-      <c r="BB14"/>
-      <c r="BC14"/>
-      <c r="BD14"/>
-      <c r="BE14"/>
-      <c r="BF14"/>
-      <c r="BG14"/>
       <c r="BH14">
         <v>157</v>
       </c>
@@ -4144,29 +4003,16 @@
       <c r="BJ14">
         <v>174</v>
       </c>
-      <c r="BK14"/>
       <c r="BL14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BM14" t="s">
-        <v>278</v>
-      </c>
-      <c r="BN14"/>
-      <c r="BO14"/>
-      <c r="BP14"/>
-      <c r="BQ14"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
-      <c r="BT14"/>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
-      <c r="BY14"/>
+        <v>276</v>
+      </c>
     </row>
-    <row r="15" spans="1:77">
-      <c r="A15" t="s">
-        <v>279</v>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="B15">
         <v>7972</v>
@@ -4175,13 +4021,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E15">
         <v>2012</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
@@ -4198,7 +4044,6 @@
       <c r="K15">
         <v>12.6</v>
       </c>
-      <c r="L15"/>
       <c r="M15">
         <v>22</v>
       </c>
@@ -4212,119 +4057,82 @@
         <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>282</v>
-      </c>
-      <c r="R15"/>
+        <v>279</v>
+      </c>
       <c r="S15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="T15" t="s">
         <v>118</v>
       </c>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
       <c r="X15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y15" t="s">
         <v>103</v>
       </c>
       <c r="Z15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA15" t="s">
         <v>85</v>
       </c>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
       <c r="AE15" t="s">
         <v>149</v>
       </c>
       <c r="AF15" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
+        <v>283</v>
+      </c>
       <c r="AK15" t="s">
         <v>149</v>
       </c>
       <c r="AL15" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT15" t="s">
         <v>286</v>
       </c>
-      <c r="AM15"/>
-      <c r="AN15"/>
-      <c r="AO15"/>
-      <c r="AP15"/>
-      <c r="AQ15" t="s">
+      <c r="AV15" t="s">
         <v>287</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AX15" t="s">
         <v>288</v>
       </c>
-      <c r="AS15"/>
-      <c r="AT15" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU15"/>
-      <c r="AV15" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW15"/>
-      <c r="AX15" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY15"/>
       <c r="AZ15">
         <v>16</v>
       </c>
-      <c r="BA15"/>
       <c r="BB15">
         <v>10</v>
       </c>
-      <c r="BC15"/>
       <c r="BD15">
         <v>2</v>
       </c>
-      <c r="BE15"/>
       <c r="BF15">
         <v>8</v>
       </c>
-      <c r="BG15"/>
-      <c r="BH15"/>
-      <c r="BI15"/>
       <c r="BJ15">
         <v>36</v>
       </c>
-      <c r="BK15"/>
-      <c r="BL15"/>
-      <c r="BM15"/>
-      <c r="BN15"/>
-      <c r="BO15"/>
-      <c r="BP15"/>
-      <c r="BQ15"/>
-      <c r="BR15"/>
-      <c r="BS15"/>
       <c r="BT15" t="s">
+        <v>289</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>290</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>291</v>
+      </c>
+      <c r="BY15" t="s">
         <v>292</v>
       </c>
-      <c r="BU15" t="s">
-        <v>293</v>
-      </c>
-      <c r="BV15"/>
-      <c r="BW15"/>
-      <c r="BX15" t="s">
-        <v>294</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>295</v>
-      </c>
     </row>
-    <row r="16" spans="1:77">
-      <c r="A16"/>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>8756</v>
       </c>
@@ -4332,13 +4140,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E16">
         <v>2023</v>
       </c>
       <c r="F16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
@@ -4350,10 +4158,8 @@
         <v>102</v>
       </c>
       <c r="J16">
-        <v>39.8</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16"/>
+        <v>39.799999999999997</v>
+      </c>
       <c r="M16">
         <v>19</v>
       </c>
@@ -4367,50 +4173,40 @@
         <v>60</v>
       </c>
       <c r="Q16" t="s">
-        <v>229</v>
-      </c>
-      <c r="R16"/>
+        <v>227</v>
+      </c>
       <c r="S16">
         <v>30</v>
       </c>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
       <c r="X16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Y16" t="s">
         <v>103</v>
       </c>
-      <c r="Z16"/>
       <c r="AA16" t="s">
         <v>85</v>
       </c>
       <c r="AB16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC16"/>
-      <c r="AD16"/>
+        <v>296</v>
+      </c>
       <c r="AE16" t="s">
         <v>87</v>
       </c>
       <c r="AF16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AH16" t="s">
         <v>175</v>
       </c>
-      <c r="AI16"/>
-      <c r="AJ16"/>
       <c r="AK16" t="s">
         <v>87</v>
       </c>
       <c r="AL16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AM16">
         <v>60</v>
@@ -4418,60 +4214,26 @@
       <c r="AN16">
         <v>1</v>
       </c>
-      <c r="AO16"/>
-      <c r="AP16"/>
       <c r="AQ16" t="s">
         <v>83</v>
       </c>
       <c r="AR16" t="s">
+        <v>300</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>301</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW16" t="s">
         <v>303</v>
       </c>
-      <c r="AS16"/>
-      <c r="AT16"/>
-      <c r="AU16"/>
-      <c r="AV16"/>
-      <c r="AW16"/>
-      <c r="AX16"/>
-      <c r="AY16"/>
-      <c r="AZ16"/>
-      <c r="BA16"/>
-      <c r="BB16"/>
-      <c r="BC16"/>
-      <c r="BD16"/>
-      <c r="BE16"/>
-      <c r="BF16"/>
-      <c r="BG16"/>
-      <c r="BH16"/>
-      <c r="BI16"/>
-      <c r="BJ16"/>
-      <c r="BK16"/>
-      <c r="BL16"/>
-      <c r="BM16"/>
-      <c r="BN16"/>
-      <c r="BO16"/>
-      <c r="BP16"/>
-      <c r="BQ16"/>
-      <c r="BR16"/>
-      <c r="BS16"/>
-      <c r="BT16" t="s">
+      <c r="BX16" t="s">
         <v>304</v>
       </c>
-      <c r="BU16" t="s">
-        <v>305</v>
-      </c>
-      <c r="BV16"/>
-      <c r="BW16" t="s">
-        <v>306</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>307</v>
-      </c>
-      <c r="BY16"/>
     </row>
-    <row r="17" spans="1:77">
-      <c r="A17" t="s">
-        <v>308</v>
-      </c>
+    <row r="17" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>9071</v>
       </c>
@@ -4479,13 +4241,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
@@ -4500,14 +4262,13 @@
         <v>12.3</v>
       </c>
       <c r="K17">
-        <v>4.9</v>
-      </c>
-      <c r="L17"/>
+        <v>4.9000000000000004</v>
+      </c>
       <c r="M17">
         <v>2.4</v>
       </c>
       <c r="N17">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="O17">
         <v>7</v>
@@ -4519,113 +4280,61 @@
         <v>147</v>
       </c>
       <c r="R17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S17">
         <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>312</v>
-      </c>
-      <c r="U17"/>
-      <c r="V17"/>
+        <v>308</v>
+      </c>
       <c r="W17">
         <v>3</v>
       </c>
       <c r="X17" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE17" t="s">
         <v>313</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AG17" t="s">
         <v>314</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AH17" t="s">
         <v>315</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AI17" t="s">
         <v>316</v>
       </c>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17" t="s">
+      <c r="AJ17" t="s">
         <v>317</v>
       </c>
-      <c r="AF17"/>
-      <c r="AG17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>319</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>321</v>
-      </c>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
       <c r="AQ17" t="s">
         <v>106</v>
       </c>
       <c r="AR17" t="s">
-        <v>322</v>
-      </c>
-      <c r="AS17"/>
+        <v>318</v>
+      </c>
       <c r="AT17" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
-      <c r="BD17"/>
-      <c r="BE17"/>
-      <c r="BF17"/>
-      <c r="BG17"/>
-      <c r="BH17"/>
-      <c r="BI17"/>
-      <c r="BJ17"/>
-      <c r="BK17"/>
-      <c r="BL17"/>
-      <c r="BM17"/>
-      <c r="BN17"/>
-      <c r="BO17"/>
-      <c r="BP17"/>
-      <c r="BQ17"/>
-      <c r="BR17"/>
-      <c r="BS17"/>
-      <c r="BT17"/>
+        <v>319</v>
+      </c>
       <c r="BU17" t="s">
-        <v>324</v>
-      </c>
-      <c r="BV17"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
-      <c r="BY17"/>
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="F8CD" sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection password="F8CD" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId_comments_vml1"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>